--- a/AdminApp/Excel/template.xlsx
+++ b/AdminApp/Excel/template.xlsx
@@ -9,43 +9,57 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="SanPham" sheetId="5" r:id="rId1"/>
+    <sheet name="DanhMuc" sheetId="6" r:id="rId2"/>
+    <sheet name="NSX" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Detail</t>
-  </si>
-  <si>
-    <t>ProducerId</t>
-  </si>
-  <si>
-    <t>CategoryId</t>
-  </si>
-  <si>
-    <t>Producer Name</t>
-  </si>
-  <si>
-    <t>Category Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Tên Product</t>
+  </si>
+  <si>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Mã nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Mã danh mục</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Tiêu đề trên Web</t>
+  </si>
+  <si>
+    <t>Vị trí hiển thị</t>
+  </si>
+  <si>
+    <t>Trạng thái hiển thị</t>
   </si>
 </sst>
 </file>
@@ -382,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -400,31 +414,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -432,7 +446,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006B1E347AA4BADA43A0093E0CD108ED02" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="76bf5b5142016e015d5ed7c91ad91454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f6245be-e9d7-47b8-9284-0743fca78fff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b3e76a254440bc8062b964836481885" ns2:_="">
     <xsd:import namespace="8f6245be-e9d7-47b8-9284-0743fca78fff"/>
@@ -596,23 +691,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D60F5F-54A4-4D55-88A3-3D350B1730A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A0E7FD1-92BC-45DA-B5F1-09990D305B3D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -624,7 +704,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A0E7FD1-92BC-45DA-B5F1-09990D305B3D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D60F5F-54A4-4D55-88A3-3D350B1730A8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>